--- a/data/ModelF_Atezolizumab_Params.xlsx
+++ b/data/ModelF_Atezolizumab_Params.xlsx
@@ -25,11 +25,13 @@
     <definedName name="k13d_prop">Sheet1!$F$60</definedName>
     <definedName name="k13d_thurber">Sheet1!$F$59</definedName>
     <definedName name="k13DS">Sheet1!$F$63</definedName>
+    <definedName name="k13M">Sheet1!$F$69</definedName>
     <definedName name="k13S">Sheet1!$F$62</definedName>
     <definedName name="k21D">Sheet1!$F$14</definedName>
     <definedName name="k31D">Sheet1!$F$66</definedName>
     <definedName name="k31D_prop">Sheet1!$F$65</definedName>
     <definedName name="k31D_thurber">Sheet1!$F$64</definedName>
+    <definedName name="k31M">Sheet1!$F$70</definedName>
     <definedName name="Kd">Sheet1!$F$18</definedName>
     <definedName name="keD">Sheet1!$F$5</definedName>
     <definedName name="keD3_">Sheet1!$F$52</definedName>
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="185">
   <si>
     <t>Parameter</t>
   </si>
@@ -437,9 +439,6 @@
     <t>B_S</t>
   </si>
   <si>
-    <t>no soluble target synthesisi, so irrelevant</t>
-  </si>
-  <si>
     <t>set to 0 not used</t>
   </si>
   <si>
@@ -624,6 +623,18 @@
   </si>
   <si>
     <t>Reasonable Value - Li04 - 10.4049/jimmunol.173.11.6806</t>
+  </si>
+  <si>
+    <t>Assume it's equal to k31D</t>
+  </si>
+  <si>
+    <t>scale by volume</t>
+  </si>
+  <si>
+    <t>Could be much faster, or could not occur at all depending on tissue</t>
+  </si>
+  <si>
+    <t>scale by volume such that at equilibrium, the amount flowing back and forth are equal</t>
   </si>
 </sst>
 </file>
@@ -761,9 +772,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -800,6 +808,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -826,26 +837,24 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="23">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -870,7 +879,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -922,465 +931,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1402,7 +952,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1548,12 +1098,123 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC7CE"/>
       <color rgb="FFC6EFCE"/>
-      <color rgb="FFFFC7CE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1568,21 +1229,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J79"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Order" dataDxfId="55"/>
-    <tableColumn id="2" name="ParamType" dataDxfId="54"/>
-    <tableColumn id="3" name="Molecule" dataDxfId="53"/>
-    <tableColumn id="4" name="Description" dataDxfId="52"/>
-    <tableColumn id="5" name="Parameter" dataDxfId="4"/>
-    <tableColumn id="6" name="Value" dataDxfId="2"/>
+    <tableColumn id="1" name="Order" dataDxfId="9"/>
+    <tableColumn id="2" name="ParamType" dataDxfId="8"/>
+    <tableColumn id="3" name="Molecule" dataDxfId="7"/>
+    <tableColumn id="4" name="Description" dataDxfId="6"/>
+    <tableColumn id="5" name="Parameter" dataDxfId="5"/>
+    <tableColumn id="6" name="Value" dataDxfId="4"/>
     <tableColumn id="7" name="Units" dataDxfId="3"/>
-    <tableColumn id="8" name="Source" dataDxfId="51"/>
-    <tableColumn id="10" name="Formula" dataDxfId="50">
+    <tableColumn id="8" name="Source" dataDxfId="2"/>
+    <tableColumn id="10" name="Formula" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Comment or Reference" dataDxfId="49"/>
+    <tableColumn id="9" name="Comment or Reference" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1912,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="99" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1957,7 +1618,7 @@
         <v>104</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>43</v>
@@ -1986,9 +1647,9 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="15" t="str">
+        <v>119</v>
+      </c>
+      <c r="I2" s="14" t="str">
         <f t="shared" ref="I2:I22" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</f>
         <v/>
       </c>
@@ -2017,9 +1678,9 @@
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="15" t="str">
+        <v>119</v>
+      </c>
+      <c r="I3" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2050,12 +1711,12 @@
       <c r="H4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="15" t="str">
+      <c r="I4" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J4" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2084,7 +1745,7 @@
       <c r="H5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="15" t="str">
+      <c r="I5" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=CL/Vc</v>
       </c>
@@ -2115,12 +1776,12 @@
       <c r="H6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="15" t="str">
+      <c r="I6" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J6" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2148,12 +1809,12 @@
       <c r="H7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="15" t="str">
+      <c r="I7" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J7" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2181,12 +1842,12 @@
       <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="15" t="str">
+      <c r="I8" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J8" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2215,7 +1876,7 @@
       <c r="H9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="15" t="str">
+      <c r="I9" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=VD1_</v>
       </c>
@@ -2247,7 +1908,7 @@
       <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="15" t="str">
+      <c r="I10" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=VD1_</v>
       </c>
@@ -2279,7 +1940,7 @@
       <c r="H11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="15" t="str">
+      <c r="I11" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=VD1_</v>
       </c>
@@ -2311,7 +1972,7 @@
       <c r="H12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="15" t="str">
+      <c r="I12" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=VD1_</v>
       </c>
@@ -2343,7 +2004,7 @@
       <c r="H13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="15" t="str">
+      <c r="I13" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=Q/VD1_</v>
       </c>
@@ -2375,7 +2036,7 @@
       <c r="H14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="15" t="str">
+      <c r="I14" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=Q/VD2_</v>
       </c>
@@ -2386,7 +2047,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>68</v>
@@ -2406,7 +2067,7 @@
       <c r="H15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="15" t="str">
+      <c r="I15" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2419,7 +2080,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>78</v>
@@ -2439,12 +2100,12 @@
       <c r="H16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="15" t="str">
+      <c r="I16" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J16" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2452,7 +2113,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>70</v>
@@ -2473,12 +2134,12 @@
       <c r="H17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="15" t="str">
+      <c r="I17" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=MWS</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2486,7 +2147,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>73</v>
@@ -2506,12 +2167,12 @@
       <c r="H18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="15" t="str">
+      <c r="I18" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J18" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2519,7 +2180,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>73</v>
@@ -2539,12 +2200,12 @@
       <c r="H19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="15" t="str">
+      <c r="I19" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J19" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2552,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>73</v>
@@ -2573,7 +2234,7 @@
       <c r="H20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="15" t="str">
+      <c r="I20" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=koff</v>
       </c>
@@ -2584,7 +2245,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>73</v>
@@ -2605,7 +2266,7 @@
       <c r="H21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="15" t="str">
+      <c r="I21" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=Kd*koff</v>
       </c>
@@ -2616,7 +2277,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>73</v>
@@ -2637,7 +2298,7 @@
       <c r="H22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="15" t="str">
+      <c r="I22" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=kon</v>
       </c>
@@ -2648,44 +2309,44 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="22">
+        <v>153</v>
+      </c>
+      <c r="F23" s="21">
         <f>3/MWS</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="17" t="s">
         <v>51</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="21" t="str">
+      <c r="I23" s="20" t="str">
         <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F23),"")</f>
         <v>=3/MWS</v>
       </c>
-      <c r="J23" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F24" s="12">
         <v>60</v>
@@ -2694,22 +2355,22 @@
         <v>3</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I24" s="15" t="str">
+        <v>157</v>
+      </c>
+      <c r="I24" s="14" t="str">
         <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F24),"")</f>
         <v/>
       </c>
       <c r="J24" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>70</v>
@@ -2728,22 +2389,22 @@
         <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" s="15" t="str">
+        <v>157</v>
+      </c>
+      <c r="I25" s="14" t="str">
         <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F25),"")</f>
         <v>=S1acc*keDS1</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>71</v>
@@ -2761,22 +2422,22 @@
         <v>4</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26" s="15" t="str">
+        <v>157</v>
+      </c>
+      <c r="I26" s="14" t="str">
         <f t="shared" ref="I26:I52" ca="1" si="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F26),"")</f>
         <v/>
       </c>
       <c r="J26" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>70</v>
@@ -2794,9 +2455,9 @@
         <v>19</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="15" t="str">
+        <v>119</v>
+      </c>
+      <c r="I27" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -2804,12 +2465,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>70</v>
@@ -2827,9 +2488,9 @@
         <v>19</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I28" s="15" t="str">
+        <v>119</v>
+      </c>
+      <c r="I28" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -2842,7 +2503,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>69</v>
@@ -2860,14 +2521,14 @@
         <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29" s="15" t="str">
+        <v>119</v>
+      </c>
+      <c r="I29" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J29" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2875,7 +2536,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>69</v>
@@ -2893,14 +2554,14 @@
         <v>4</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="15" t="str">
+        <v>119</v>
+      </c>
+      <c r="I30" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J30" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2908,16 +2569,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F31" s="3">
         <v>15000</v>
@@ -2928,12 +2589,12 @@
       <c r="H31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I31" s="15" t="str">
+      <c r="I31" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J31" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2941,30 +2602,30 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="F32" s="25">
-        <v>300000000000</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="15" t="str">
+      <c r="I32" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J32" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2972,30 +2633,30 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="25">
+      <c r="F33" s="24">
         <v>6000000000</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I33" s="15" t="str">
+      <c r="I33" s="14" t="str">
         <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F33),"")</f>
         <v/>
       </c>
       <c r="J33" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3003,14 +2664,14 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -3021,12 +2682,12 @@
       <c r="H34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I34" s="15" t="str">
+      <c r="I34" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J34" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3034,7 +2695,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>78</v>
@@ -3043,30 +2704,30 @@
         <v>114</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" s="17">
+        <v>161</v>
+      </c>
+      <c r="F35" s="16">
         <f>Npercell*Rhoblood*Mfrac/6.02E+23*1000000000</f>
         <v>0.14950166112956811</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="21" t="str">
+      <c r="I35" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=Npercell*Rhoblood*Mfrac/6.02E+23*1000000000</v>
       </c>
-      <c r="J35" s="22"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>78</v>
@@ -3077,28 +2738,28 @@
       <c r="E36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="16">
         <f>Npercell*Rho*Mfrac/6.02E+23*1000000000</f>
         <v>7.4750830564784057</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="21" t="str">
+      <c r="I36" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=Npercell*Rho*Mfrac/6.02E+23*1000000000</v>
       </c>
-      <c r="J36" s="22"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>78</v>
@@ -3119,7 +2780,7 @@
       <c r="H37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I37" s="15" t="str">
+      <c r="I37" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=M10_*kshedM1</v>
       </c>
@@ -3130,7 +2791,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>78</v>
@@ -3151,7 +2812,7 @@
       <c r="H38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="15" t="str">
+      <c r="I38" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=M30_*kshed</v>
       </c>
@@ -3162,7 +2823,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>78</v>
@@ -3180,14 +2841,14 @@
         <v>4</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I39" s="15" t="str">
+        <v>119</v>
+      </c>
+      <c r="I39" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J39" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3195,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>69</v>
@@ -3213,14 +2874,14 @@
         <v>4</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I40" s="15" t="str">
+        <v>119</v>
+      </c>
+      <c r="I40" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J40" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3228,7 +2889,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>81</v>
@@ -3246,14 +2907,14 @@
         <v>4</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I41" s="15" t="str">
+        <v>119</v>
+      </c>
+      <c r="I41" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J41" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3261,7 +2922,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>69</v>
@@ -3279,14 +2940,14 @@
         <v>4</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I42" s="15" t="str">
+        <v>119</v>
+      </c>
+      <c r="I42" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J42" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3294,7 +2955,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>78</v>
@@ -3305,21 +2966,21 @@
       <c r="E43" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="13">
         <v>3</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I43" s="15" t="str">
+      <c r="I43" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J43" s="9" t="s">
-        <v>181</v>
+      <c r="J43" s="19" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3327,7 +2988,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>81</v>
@@ -3348,7 +3009,7 @@
       <c r="H44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I44" s="15" t="str">
+      <c r="I44" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=kshedM1</v>
       </c>
@@ -3359,7 +3020,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>78</v>
@@ -3380,7 +3041,7 @@
       <c r="H45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I45" s="15" t="str">
+      <c r="I45" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=kshedM1</v>
       </c>
@@ -3391,7 +3052,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>81</v>
@@ -3412,7 +3073,7 @@
       <c r="H46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="15" t="str">
+      <c r="I46" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=kshedM1</v>
       </c>
@@ -3434,20 +3095,20 @@
       <c r="E47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="13">
         <v>0.1</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="23" t="str">
+      <c r="I47" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J47" s="20" t="s">
+      <c r="J47" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3477,7 +3138,7 @@
       <c r="H48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I48" s="15" t="str">
+      <c r="I48" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=VD3_</v>
       </c>
@@ -3509,7 +3170,7 @@
       <c r="H49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I49" s="15" t="str">
+      <c r="I49" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=VD3_</v>
       </c>
@@ -3541,7 +3202,7 @@
       <c r="H50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I50" s="15" t="str">
+      <c r="I50" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=VD3_</v>
       </c>
@@ -3573,7 +3234,7 @@
       <c r="H51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I51" s="15" t="str">
+      <c r="I51" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=VD3_</v>
       </c>
@@ -3602,9 +3263,9 @@
         <v>4</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I52" s="15" t="str">
+        <v>119</v>
+      </c>
+      <c r="I52" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -3617,7 +3278,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>68</v>
@@ -3628,22 +3289,22 @@
       <c r="E53" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="16">
         <f>k13D*(Vc/Vtum)/(keD3_+k31D)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I53" s="21" t="str">
+        <v>135</v>
+      </c>
+      <c r="I53" s="20" t="str">
         <f t="shared" ref="I53:I79" ca="1" si="2">_xlfn.IFNA(_xlfn.FORMULATEXT(F53),"")</f>
         <v>=k13D*(Vc/Vtum)/(keD3_+k31D)</v>
       </c>
-      <c r="J53" s="22" t="s">
-        <v>138</v>
+      <c r="J53" s="21" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -3651,7 +3312,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>70</v>
@@ -3671,7 +3332,7 @@
       <c r="H54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I54" s="15" t="str">
+      <c r="I54" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
@@ -3682,28 +3343,28 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F55" s="3">
         <f>0.000000003*1000000*60*60*24</f>
         <v>259.2</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I55" s="15" t="str">
+      <c r="I55" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=0.000000003*1000000*60*60*24</v>
       </c>
@@ -3716,27 +3377,27 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F56" s="3">
         <v>8</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I56" s="15" t="str">
+      <c r="I56" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
@@ -3749,27 +3410,27 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F57" s="3">
         <v>75</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I57" s="15" t="str">
+      <c r="I57" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
@@ -3782,16 +3443,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F58" s="3">
         <v>1</v>
@@ -3800,14 +3461,14 @@
         <v>3</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I58" s="15" t="str">
+        <v>120</v>
+      </c>
+      <c r="I58" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J58" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -3815,16 +3476,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F59" s="3">
         <f>k31D_thurber*VD3_/VD1_</f>
@@ -3836,12 +3497,12 @@
       <c r="H59" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I59" s="15" t="str">
+      <c r="I59" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=k31D_thurber*VD3_/VD1_</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -3849,16 +3510,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F60" s="3">
         <f>k12D*VD3_/VD2_</f>
@@ -3870,7 +3531,7 @@
       <c r="H60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I60" s="15" t="str">
+      <c r="I60" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=k12D*VD3_/VD2_</v>
       </c>
@@ -3881,7 +3542,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>68</v>
@@ -3892,22 +3553,22 @@
       <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="13">
         <f>k13d_prop</f>
         <v>4.5857689981858504E-3</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I61" s="14" t="str">
+      <c r="I61" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=k13d_prop</v>
       </c>
-      <c r="J61" s="14" t="s">
-        <v>137</v>
+      <c r="J61" s="13" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3915,7 +3576,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>70</v>
@@ -3927,20 +3588,21 @@
         <v>28</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <f>2*k13D</f>
+        <v>9.1715379963717009E-3</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I62" s="15" t="str">
+        <v>52</v>
+      </c>
+      <c r="I62" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>=2*k13D</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3948,7 +3610,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>71</v>
@@ -3960,37 +3622,38 @@
         <v>30</v>
       </c>
       <c r="F63" s="3">
-        <v>0</v>
+        <f>k13D</f>
+        <v>4.5857689981858504E-3</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I63" s="15" t="str">
+        <v>52</v>
+      </c>
+      <c r="I63" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>=k13D</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F64" s="3">
         <f>2*P*Rcap/Rkrogh^2</f>
@@ -4002,12 +3665,12 @@
       <c r="H64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I64" s="15" t="str">
+      <c r="I64" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=2*P*Rcap/Rkrogh^2</v>
       </c>
-      <c r="J64" s="16" t="s">
-        <v>135</v>
+      <c r="J64" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4015,16 +3678,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F65" s="3">
         <f>VD1_/VD3_*k13d_prop*3</f>
@@ -4036,12 +3699,12 @@
       <c r="H65" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I65" s="15" t="str">
+      <c r="I65" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=VD1_/VD3_*k13d_prop*3</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4049,33 +3712,33 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="13">
         <f>k31D_prop</f>
         <v>0.45123966942148763</v>
       </c>
-      <c r="G66" s="19" t="s">
+      <c r="G66" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I66" s="20" t="str">
+      <c r="I66" s="19" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=k31D_prop</v>
       </c>
-      <c r="J66" s="20" t="s">
-        <v>137</v>
+      <c r="J66" s="19" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4083,32 +3746,33 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F67" s="3">
-        <v>1</v>
+        <f>2*k31D</f>
+        <v>0.90247933884297526</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="I67" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>=2*k31D</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4116,40 +3780,41 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F68" s="3">
-        <v>1</v>
+        <f>k31D</f>
+        <v>0.45123966942148763</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="I68" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>=k31D</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>78</v>
@@ -4160,27 +3825,29 @@
       <c r="E69" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="F69" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G69" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I69" s="12" t="str">
+      <c r="H69" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I69" s="19" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="J69" s="13"/>
+      <c r="J69" s="25" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="70" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>78</v>
@@ -4192,26 +3859,29 @@
         <v>101</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <f>k13M*VD1_/VD3_</f>
+        <v>6.56</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="I70" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J70" s="9"/>
+        <v>=k13M*VD1_/VD3_</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>81</v>
@@ -4223,26 +3893,27 @@
         <v>102</v>
       </c>
       <c r="F71" s="3">
-        <v>0</v>
+        <f>k13M</f>
+        <v>0.2</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="I71" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J71" s="9"/>
+        <v>=k13M</v>
+      </c>
+      <c r="J71" s="12"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>81</v>
@@ -4254,19 +3925,22 @@
         <v>103</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <f>k31M</f>
+        <v>6.56</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="I72" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J72" s="9"/>
+        <v>=k31M</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="73" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
@@ -4373,47 +4047,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F293">
-    <cfRule type="containsText" dxfId="37" priority="21" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="36" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:I58 K55:K58 D58 C55:C58 J25:J28 K24:K28 K31:K34 I24:J24 G35:G36 H24:I38 B53:K53 B47:H52 I37:I66 A1:K3 C37:G38 C24:G30 B24:B46 C59:K66 C54:K54 A80:K1048576 B69:H72 B54:B68 B4:K23 A4:A72 A79:H79 C67:H68 I67:K79 J29:K30 C39:H46 J35:K52 C35:E36">
-    <cfRule type="containsText" dxfId="1" priority="18" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:I1048576 H79 H67:H72 I67:I79 H1:I66">
-    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:I66 H1:I38 I37:I52 H80:I1048576 H79 H67:H72 I67:I79 H39:H52">
-    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="14" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79:H1048576 H1:H72">
-    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/ModelF_Atezolizumab_Params.xlsx
+++ b/data/ModelF_Atezolizumab_Params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="460" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="520" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1573,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="99" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="99" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/ModelF_Atezolizumab_Params.xlsx
+++ b/data/ModelF_Atezolizumab_Params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="520" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="1240" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$70</definedName>
     <definedName name="ABCdrug">Sheet1!$F$53</definedName>
     <definedName name="ABCsol">Sheet1!$F$54</definedName>
+    <definedName name="Cavg">Sheet1!$F$75</definedName>
     <definedName name="CL">Sheet1!$F$4</definedName>
+    <definedName name="Dose">Sheet1!$F$73</definedName>
     <definedName name="eps">Sheet1!$F$58</definedName>
     <definedName name="k12D">Sheet1!$F$13</definedName>
     <definedName name="k13D">Sheet1!$F$61</definedName>
@@ -35,9 +37,11 @@
     <definedName name="Kd">Sheet1!$F$18</definedName>
     <definedName name="keD">Sheet1!$F$5</definedName>
     <definedName name="keD3_">Sheet1!$F$52</definedName>
+    <definedName name="keDMtot">Sheet1!$F$76</definedName>
     <definedName name="keDS1">Sheet1!$F$26</definedName>
+    <definedName name="keM">Sheet1!$F$76</definedName>
     <definedName name="keM3_">Sheet1!$F$40</definedName>
-    <definedName name="koff">Sheet1!$F$18</definedName>
+    <definedName name="koff">Sheet1!$F$19</definedName>
     <definedName name="kon">Sheet1!$F$21</definedName>
     <definedName name="kshed">Sheet1!$F$45</definedName>
     <definedName name="kshedM1">Sheet1!$F$43</definedName>
@@ -55,6 +59,7 @@
     <definedName name="Rkrogh">Sheet1!$F$57</definedName>
     <definedName name="S10_">Sheet1!$F$23</definedName>
     <definedName name="S1acc">Sheet1!$F$24</definedName>
+    <definedName name="Tau">Sheet1!$F$74</definedName>
     <definedName name="Tfrac">Sheet1!$F$26</definedName>
     <definedName name="Vc">Sheet1!$F$7</definedName>
     <definedName name="VcDS">Sheet1!$F$10</definedName>
@@ -62,7 +67,9 @@
     <definedName name="VD1_">Sheet1!$F$7</definedName>
     <definedName name="VD2_">Sheet1!$F$8</definedName>
     <definedName name="VD3_">Sheet1!$F$47</definedName>
+    <definedName name="VDS1_">Sheet1!$F$10</definedName>
     <definedName name="Vp">Sheet1!$F$8</definedName>
+    <definedName name="VS1_">Sheet1!$F$9</definedName>
     <definedName name="Vtum">Sheet1!$F$47</definedName>
     <definedName name="VtumDS">Sheet1!$F$49</definedName>
     <definedName name="VtumS">Sheet1!$F$48</definedName>
@@ -80,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="199">
   <si>
     <t>Parameter</t>
   </si>
@@ -484,9 +491,6 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>Formula from Cilliers16, from Thurber12 - 10.1016/j.jtbi.2012.08.034</t>
-  </si>
-  <si>
     <t>check ~ 0.3 or ~1</t>
   </si>
   <si>
@@ -635,6 +639,51 @@
   </si>
   <si>
     <t>scale by volume such that at equilibrium, the amount flowing back and forth are equal</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>nmol</t>
+  </si>
+  <si>
+    <t>15 mg/kg dose (1200 mg)</t>
+  </si>
+  <si>
+    <t>Cavg</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>Dose intensity</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>phi^2</t>
+  </si>
+  <si>
+    <t>Average concentration</t>
+  </si>
+  <si>
+    <t>Thiele Modulus</t>
+  </si>
+  <si>
+    <t>Total Elimination Tumor</t>
+  </si>
+  <si>
+    <t>keDMtot</t>
+  </si>
+  <si>
+    <t>Formula from Cilliers16, from Thurber12 - P*S/V 10.1016/j.jtbi.2012.08.034</t>
+  </si>
+  <si>
+    <t>check - &lt;1 means saturated</t>
+  </si>
+  <si>
+    <t>From Thurber08 - 10.1016/j.addr.2008.04.012</t>
   </si>
 </sst>
 </file>
@@ -837,7 +886,208 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1098,123 +1348,12 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFC6EFCE"/>
       <color rgb="FFFFC7CE"/>
-      <color rgb="FFC6EFCE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1229,21 +1368,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:J79"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Order" dataDxfId="9"/>
-    <tableColumn id="2" name="ParamType" dataDxfId="8"/>
-    <tableColumn id="3" name="Molecule" dataDxfId="7"/>
-    <tableColumn id="4" name="Description" dataDxfId="6"/>
-    <tableColumn id="5" name="Parameter" dataDxfId="5"/>
-    <tableColumn id="6" name="Value" dataDxfId="4"/>
-    <tableColumn id="7" name="Units" dataDxfId="3"/>
-    <tableColumn id="8" name="Source" dataDxfId="2"/>
-    <tableColumn id="10" name="Formula" dataDxfId="1">
+    <tableColumn id="1" name="Order" dataDxfId="29"/>
+    <tableColumn id="2" name="ParamType" dataDxfId="28"/>
+    <tableColumn id="3" name="Molecule" dataDxfId="27"/>
+    <tableColumn id="4" name="Description" dataDxfId="26"/>
+    <tableColumn id="5" name="Parameter" dataDxfId="25"/>
+    <tableColumn id="6" name="Value" dataDxfId="24"/>
+    <tableColumn id="7" name="Units" dataDxfId="23"/>
+    <tableColumn id="8" name="Source" dataDxfId="22"/>
+    <tableColumn id="10" name="Formula" dataDxfId="21">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Comment or Reference" dataDxfId="0"/>
+    <tableColumn id="9" name="Comment or Reference" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1573,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="99" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1716,7 +1855,7 @@
         <v/>
       </c>
       <c r="J4" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1781,7 +1920,7 @@
         <v/>
       </c>
       <c r="J6" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1814,7 +1953,7 @@
         <v/>
       </c>
       <c r="J7" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1847,7 +1986,7 @@
         <v/>
       </c>
       <c r="J8" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2047,7 +2186,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>68</v>
@@ -2080,7 +2219,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>78</v>
@@ -2105,7 +2244,7 @@
         <v/>
       </c>
       <c r="J16" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2113,7 +2252,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>70</v>
@@ -2139,7 +2278,7 @@
         <v>=MWS</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2147,7 +2286,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>73</v>
@@ -2172,7 +2311,7 @@
         <v/>
       </c>
       <c r="J18" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2180,7 +2319,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>73</v>
@@ -2205,7 +2344,7 @@
         <v/>
       </c>
       <c r="J19" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2213,7 +2352,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>73</v>
@@ -2225,8 +2364,8 @@
         <v>18</v>
       </c>
       <c r="F20" s="12">
-        <f>koff</f>
-        <v>0.4</v>
+        <f>F19</f>
+        <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>4</v>
@@ -2236,7 +2375,7 @@
       </c>
       <c r="I20" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=koff</v>
+        <v>=F19</v>
       </c>
       <c r="J20" s="9"/>
     </row>
@@ -2245,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>73</v>
@@ -2258,7 +2397,7 @@
       </c>
       <c r="F21" s="12">
         <f>Kd*koff</f>
-        <v>0.16000000000000003</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>20</v>
@@ -2277,7 +2416,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>73</v>
@@ -2290,7 +2429,7 @@
       </c>
       <c r="F22" s="12">
         <f>kon</f>
-        <v>0.16000000000000003</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>20</v>
@@ -2309,14 +2448,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="21">
         <f>3/MWS</f>
@@ -2333,7 +2472,7 @@
         <v>=3/MWS</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -2341,12 +2480,12 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24" s="12">
         <v>60</v>
@@ -2355,14 +2494,14 @@
         <v>3</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I24" s="14" t="str">
         <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F24),"")</f>
         <v/>
       </c>
       <c r="J24" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -2370,7 +2509,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>70</v>
@@ -2389,14 +2528,14 @@
         <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I25" s="14" t="str">
         <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F25),"")</f>
         <v>=S1acc*keDS1</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -2404,7 +2543,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>71</v>
@@ -2422,14 +2561,14 @@
         <v>4</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I26" s="14" t="str">
         <f t="shared" ref="I26:I52" ca="1" si="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F26),"")</f>
         <v/>
       </c>
       <c r="J26" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -2437,7 +2576,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>70</v>
@@ -2470,7 +2609,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>70</v>
@@ -2503,7 +2642,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>69</v>
@@ -2528,7 +2667,7 @@
         <v/>
       </c>
       <c r="J29" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2536,7 +2675,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>69</v>
@@ -2561,7 +2700,7 @@
         <v/>
       </c>
       <c r="J30" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2569,16 +2708,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F31" s="3">
         <v>15000</v>
@@ -2594,7 +2733,7 @@
         <v/>
       </c>
       <c r="J31" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2602,20 +2741,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F32" s="24">
         <v>300000000000</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>53</v>
@@ -2625,7 +2764,7 @@
         <v/>
       </c>
       <c r="J32" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2633,20 +2772,20 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F33" s="24">
         <v>6000000000</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>53</v>
@@ -2656,7 +2795,7 @@
         <v/>
       </c>
       <c r="J33" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2664,14 +2803,14 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -2687,7 +2826,7 @@
         <v/>
       </c>
       <c r="J34" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2695,7 +2834,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>78</v>
@@ -2704,7 +2843,7 @@
         <v>114</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F35" s="16">
         <f>Npercell*Rhoblood*Mfrac/6.02E+23*1000000000</f>
@@ -2727,7 +2866,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>78</v>
@@ -2759,7 +2898,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>78</v>
@@ -2791,7 +2930,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>78</v>
@@ -2823,7 +2962,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>78</v>
@@ -2848,7 +2987,7 @@
         <v/>
       </c>
       <c r="J39" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2856,7 +2995,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>69</v>
@@ -2881,7 +3020,7 @@
         <v/>
       </c>
       <c r="J40" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2889,7 +3028,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>81</v>
@@ -2914,7 +3053,7 @@
         <v/>
       </c>
       <c r="J41" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2922,7 +3061,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>69</v>
@@ -2947,7 +3086,7 @@
         <v/>
       </c>
       <c r="J42" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2955,7 +3094,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>78</v>
@@ -2980,7 +3119,7 @@
         <v/>
       </c>
       <c r="J43" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2988,7 +3127,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>81</v>
@@ -3020,7 +3159,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>78</v>
@@ -3052,7 +3191,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>81</v>
@@ -3278,7 +3417,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>68</v>
@@ -3297,14 +3436,14 @@
         <v>3</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I53" s="20" t="str">
         <f t="shared" ref="I53:I79" ca="1" si="2">_xlfn.IFNA(_xlfn.FORMULATEXT(F53),"")</f>
         <v>=k13D*(Vc/Vtum)/(keD3_+k31D)</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -3312,7 +3451,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>70</v>
@@ -3343,13 +3482,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>122</v>
@@ -3377,13 +3516,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>124</v>
@@ -3410,13 +3549,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>126</v>
@@ -3443,13 +3582,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>127</v>
@@ -3476,13 +3615,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>128</v>
@@ -3502,7 +3641,7 @@
         <v>=k31D_thurber*VD3_/VD1_</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -3510,13 +3649,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>129</v>
@@ -3542,7 +3681,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>68</v>
@@ -3568,7 +3707,7 @@
         <v>=k13d_prop</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3576,7 +3715,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>70</v>
@@ -3610,7 +3749,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>71</v>
@@ -3644,13 +3783,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>130</v>
@@ -3670,7 +3809,7 @@
         <v>=2*P*Rcap/Rkrogh^2</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3678,13 +3817,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>131</v>
@@ -3704,7 +3843,7 @@
         <v>=VD1_/VD3_*k13d_prop*3</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3712,13 +3851,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
@@ -3738,7 +3877,7 @@
         <v>=k31D_prop</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3746,13 +3885,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>29</v>
@@ -3780,13 +3919,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>31</v>
@@ -3806,7 +3945,7 @@
         <v>=k31D</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -3814,7 +3953,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>78</v>
@@ -3839,7 +3978,7 @@
         <v/>
       </c>
       <c r="J69" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -3847,7 +3986,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>78</v>
@@ -3873,7 +4012,7 @@
         <v>=k13M*VD1_/VD3_</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3881,7 +4020,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>81</v>
@@ -3913,7 +4052,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>81</v>
@@ -3939,33 +4078,68 @@
         <v>=k31M</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F73" s="3">
+        <f>1200*6.67</f>
+        <v>8004</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="I73" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J73" s="9"/>
+        <v>=1200*6.67</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F74" s="3">
+        <v>21</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="I74" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -3973,49 +4147,102 @@
       <c r="J74" s="9"/>
     </row>
     <row r="75" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" s="3">
+        <f>Dose/(CL*Tau)</f>
+        <v>1905.7142857142856</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I75" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F75),"")</f>
+        <v>=Dose/(CL*Tau)</v>
       </c>
       <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F76" s="3">
+        <f>F46+F42</f>
+        <v>3</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I76" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>=F46+F42</v>
       </c>
       <c r="J76" s="10"/>
     </row>
     <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="12" t="str">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" s="16">
+        <f>keDMtot*M30_/(k31D_thurber*Cavg)</f>
+        <v>1.5960519921725189E-2</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="I77" s="21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J77" s="9"/>
+        <v>=keDMtot*M30_/(k31D_thurber*Cavg)</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
@@ -4047,48 +4274,83 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F293">
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="19" priority="30" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="18" priority="28">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:I58 K55:K58 D58 C55:C58 J25:J28 K24:K28 K31:K34 I24:J24 G35:G36 H24:I38 B53:K53 B47:H52 I37:I66 A1:K3 C37:G38 C24:G30 B24:B46 C59:K66 C54:K54 A80:K1048576 B69:H72 B54:B68 B4:K23 A4:A72 A79:H79 C67:H68 I67:K79 J29:K30 C39:H46 J35:K52 C35:E36">
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="calc">
+  <conditionalFormatting sqref="H55:I58 K55:K58 D58 C55:C58 J25:J28 K24:K28 K31:K34 I24:J24 G35:G36 H24:I38 B53:K53 B47:H52 I37:I66 A1:K3 C37:G38 C24:G30 B24:B46 C59:K66 C54:K54 A80:K1048576 B69:H72 B54:B68 B4:K23 A79:H79 C67:H68 J29:K30 C39:H46 J35:K52 C35:E36 I67:K79 A4:A77">
+    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80:I1048576 H79 H67:H72 I67:I79 H1:I66">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="literature">
+  <conditionalFormatting sqref="H80:I1048576 H79 H67:H72 H1:I66 I67:I79">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53:I66 H1:I38 I37:I52 H80:I1048576 H79 H67:H72 I67:I79 H39:H52">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="not used">
+  <conditionalFormatting sqref="H53:I66 H1:I38 I37:I52 H80:I1048576 H79 H67:H72 H39:H52 I67:I79">
+    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="12" priority="22" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="10" priority="24" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79:H1048576 H1:H72">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:H77">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:H77">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:H77">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:H77">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/ModelF_Atezolizumab_Params.xlsx
+++ b/data/ModelF_Atezolizumab_Params.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1240" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="1240" yWindow="2620" windowWidth="15200" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -887,207 +887,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1348,6 +1147,207 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -1368,21 +1368,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J79"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Order" dataDxfId="29"/>
-    <tableColumn id="2" name="ParamType" dataDxfId="28"/>
-    <tableColumn id="3" name="Molecule" dataDxfId="27"/>
-    <tableColumn id="4" name="Description" dataDxfId="26"/>
-    <tableColumn id="5" name="Parameter" dataDxfId="25"/>
-    <tableColumn id="6" name="Value" dataDxfId="24"/>
-    <tableColumn id="7" name="Units" dataDxfId="23"/>
-    <tableColumn id="8" name="Source" dataDxfId="22"/>
-    <tableColumn id="10" name="Formula" dataDxfId="21">
+    <tableColumn id="1" name="Order" dataDxfId="9"/>
+    <tableColumn id="2" name="ParamType" dataDxfId="8"/>
+    <tableColumn id="3" name="Molecule" dataDxfId="7"/>
+    <tableColumn id="4" name="Description" dataDxfId="6"/>
+    <tableColumn id="5" name="Parameter" dataDxfId="5"/>
+    <tableColumn id="6" name="Value" dataDxfId="4"/>
+    <tableColumn id="7" name="Units" dataDxfId="3"/>
+    <tableColumn id="8" name="Source" dataDxfId="2"/>
+    <tableColumn id="10" name="Formula" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Comment or Reference" dataDxfId="20"/>
+    <tableColumn id="9" name="Comment or Reference" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2654,13 +2654,13 @@
         <v>33</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I29" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2687,13 +2687,13 @@
         <v>35</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I30" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4274,82 +4274,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F293">
-    <cfRule type="containsText" dxfId="19" priority="30" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="18" priority="28">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:I58 K55:K58 D58 C55:C58 J25:J28 K24:K28 K31:K34 I24:J24 G35:G36 H24:I38 B53:K53 B47:H52 I37:I66 A1:K3 C37:G38 C24:G30 B24:B46 C59:K66 C54:K54 A80:K1048576 B69:H72 B54:B68 B4:K23 A79:H79 C67:H68 J29:K30 C39:H46 J35:K52 C35:E36 I67:K79 A4:A77">
-    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:I1048576 H79 H67:H72 H1:I66 I67:I79">
-    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:I66 H1:I38 I37:I52 H80:I1048576 H79 H67:H72 H39:H52 I67:I79">
-    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="22" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="24" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79:H1048576 H1:H72">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H73)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/ModelF_Atezolizumab_Params.xlsx
+++ b/data/ModelF_Atezolizumab_Params.xlsx
@@ -1712,7 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="99" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>

--- a/data/ModelF_Atezolizumab_Params.xlsx
+++ b/data/ModelF_Atezolizumab_Params.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="2620" windowWidth="15200" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="1240" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -887,6 +887,207 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1147,207 +1348,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -1368,21 +1368,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:J79"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Order" dataDxfId="9"/>
-    <tableColumn id="2" name="ParamType" dataDxfId="8"/>
-    <tableColumn id="3" name="Molecule" dataDxfId="7"/>
-    <tableColumn id="4" name="Description" dataDxfId="6"/>
-    <tableColumn id="5" name="Parameter" dataDxfId="5"/>
-    <tableColumn id="6" name="Value" dataDxfId="4"/>
-    <tableColumn id="7" name="Units" dataDxfId="3"/>
-    <tableColumn id="8" name="Source" dataDxfId="2"/>
-    <tableColumn id="10" name="Formula" dataDxfId="1">
+    <tableColumn id="1" name="Order" dataDxfId="29"/>
+    <tableColumn id="2" name="ParamType" dataDxfId="28"/>
+    <tableColumn id="3" name="Molecule" dataDxfId="27"/>
+    <tableColumn id="4" name="Description" dataDxfId="26"/>
+    <tableColumn id="5" name="Parameter" dataDxfId="25"/>
+    <tableColumn id="6" name="Value" dataDxfId="24"/>
+    <tableColumn id="7" name="Units" dataDxfId="23"/>
+    <tableColumn id="8" name="Source" dataDxfId="22"/>
+    <tableColumn id="10" name="Formula" dataDxfId="21">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Comment or Reference" dataDxfId="0"/>
+    <tableColumn id="9" name="Comment or Reference" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2654,13 +2654,13 @@
         <v>33</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I29" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2687,13 +2687,13 @@
         <v>35</v>
       </c>
       <c r="F30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I30" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4274,82 +4274,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F293">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="19" priority="30" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="18" priority="28">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:I58 K55:K58 D58 C55:C58 J25:J28 K24:K28 K31:K34 I24:J24 G35:G36 H24:I38 B53:K53 B47:H52 I37:I66 A1:K3 C37:G38 C24:G30 B24:B46 C59:K66 C54:K54 A80:K1048576 B69:H72 B54:B68 B4:K23 A79:H79 C67:H68 J29:K30 C39:H46 J35:K52 C35:E36 I67:K79 A4:A77">
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:I1048576 H79 H67:H72 H1:I66 I67:I79">
-    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:I66 H1:I38 I37:I52 H80:I1048576 H79 H67:H72 H39:H52 I67:I79">
-    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="12" priority="22" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="10" priority="24" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79:H1048576 H1:H72">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H73)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/ModelF_Atezolizumab_Params.xlsx
+++ b/data/ModelF_Atezolizumab_Params.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/IMA_TumorModeling/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astein/Github/TumorModelingCode/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="2620" windowWidth="15200" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="1240" yWindow="460" windowWidth="15200" windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2654,13 +2654,13 @@
         <v>33</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I29" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2687,13 +2687,13 @@
         <v>35</v>
       </c>
       <c r="F30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I30" s="14" t="str">
         <f t="shared" ca="1" si="1"/>

--- a/data/ModelF_Atezolizumab_Params.xlsx
+++ b/data/ModelF_Atezolizumab_Params.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astein/Github/TumorModelingCode/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/TumorModeling_IMA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="15200" windowHeight="14960" tabRatio="500"/>
+    <workbookView xWindow="8460" yWindow="460" windowWidth="24100" windowHeight="18080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <definedName name="koff">Sheet1!$F$19</definedName>
     <definedName name="kon">Sheet1!$F$21</definedName>
     <definedName name="kshed">Sheet1!$F$45</definedName>
+    <definedName name="kshedDM1">Sheet1!$F$44</definedName>
     <definedName name="kshedM1">Sheet1!$F$43</definedName>
     <definedName name="kshedM3">Sheet1!$F$45</definedName>
     <definedName name="M10_">Sheet1!$F$35</definedName>
@@ -1352,8 +1353,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC7CE"/>
       <color rgb="FFC6EFCE"/>
-      <color rgb="FFFFC7CE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1712,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3138,21 +3139,20 @@
       <c r="E44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="3">
-        <f>kshedM1</f>
+      <c r="F44" s="13">
         <v>3</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I44" s="14" t="str">
+      <c r="H44" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=kshedM1</v>
-      </c>
-      <c r="J44" s="9"/>
+        <v/>
+      </c>
+      <c r="J44" s="19"/>
     </row>
     <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
@@ -3203,7 +3203,7 @@
         <v>40</v>
       </c>
       <c r="F46" s="3">
-        <f>kshedM1</f>
+        <f>kshedDM1</f>
         <v>3</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="I46" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=kshedM1</v>
+        <v>=kshedDM1</v>
       </c>
       <c r="J46" s="9"/>
     </row>

--- a/data/ModelF_Atezolizumab_Params.xlsx
+++ b/data/ModelF_Atezolizumab_Params.xlsx
@@ -37,6 +37,7 @@
     <definedName name="Kd">Sheet1!$F$18</definedName>
     <definedName name="keD">Sheet1!$F$5</definedName>
     <definedName name="keD3_">Sheet1!$F$52</definedName>
+    <definedName name="keDM3">Sheet1!$F$42</definedName>
     <definedName name="keDMtot">Sheet1!$F$76</definedName>
     <definedName name="keDS1">Sheet1!$F$26</definedName>
     <definedName name="keM">Sheet1!$F$76</definedName>
@@ -45,6 +46,7 @@
     <definedName name="kon">Sheet1!$F$21</definedName>
     <definedName name="kshed">Sheet1!$F$45</definedName>
     <definedName name="kshedDM1">Sheet1!$F$44</definedName>
+    <definedName name="kshedDM3">Sheet1!$F$46</definedName>
     <definedName name="kshedM1">Sheet1!$F$43</definedName>
     <definedName name="kshedM3">Sheet1!$F$45</definedName>
     <definedName name="M10_">Sheet1!$F$35</definedName>
@@ -1713,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4195,7 +4197,7 @@
         <v>195</v>
       </c>
       <c r="F76" s="3">
-        <f>F46+F42</f>
+        <f>kshedDM3+keDM3</f>
         <v>3</v>
       </c>
       <c r="G76" s="2" t="s">
@@ -4206,7 +4208,7 @@
       </c>
       <c r="I76" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=F46+F42</v>
+        <v>=kshedDM3+keDM3</v>
       </c>
       <c r="J76" s="10"/>
     </row>

--- a/data/ModelF_Atezolizumab_Params.xlsx
+++ b/data/ModelF_Atezolizumab_Params.xlsx
@@ -1715,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3142,7 +3142,7 @@
         <v>97</v>
       </c>
       <c r="F44" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>4</v>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="F46" s="3">
         <f>kshedDM1</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>4</v>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="F76" s="3">
         <f>kshedDM3+keDM3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>4</v>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="F77" s="16">
         <f>keDMtot*M30_/(k31D_thurber*Cavg)</f>
-        <v>1.5960519921725189E-2</v>
+        <v>3.1921039843450377E-2</v>
       </c>
       <c r="G77" s="17" t="s">
         <v>3</v>

--- a/data/ModelF_Atezolizumab_Params.xlsx
+++ b/data/ModelF_Atezolizumab_Params.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/TumorModeling_IMA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3051FD91-6DA8-EB41-B43D-AFEA0AE729E9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="460" windowWidth="24100" windowHeight="18080" tabRatio="500"/>
+    <workbookView xWindow="4700" yWindow="460" windowWidth="24100" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +78,7 @@
     <definedName name="VtumDS">Sheet1!$F$49</definedName>
     <definedName name="VtumS">Sheet1!$F$48</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="200">
   <si>
     <t>Parameter</t>
   </si>
@@ -687,12 +688,15 @@
   </si>
   <si>
     <t>From Thurber08 - 10.1016/j.addr.2008.04.012</t>
+  </si>
+  <si>
+    <t>calc/guess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1371,21 +1375,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Order" dataDxfId="9"/>
-    <tableColumn id="2" name="ParamType" dataDxfId="8"/>
-    <tableColumn id="3" name="Molecule" dataDxfId="7"/>
-    <tableColumn id="4" name="Description" dataDxfId="6"/>
-    <tableColumn id="5" name="Parameter" dataDxfId="5"/>
-    <tableColumn id="6" name="Value" dataDxfId="4"/>
-    <tableColumn id="7" name="Units" dataDxfId="3"/>
-    <tableColumn id="8" name="Source" dataDxfId="2"/>
-    <tableColumn id="10" name="Formula" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ParamType" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Formula" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Comment or Reference" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment or Reference" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1712,11 +1716,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3830,21 +3834,21 @@
       <c r="E65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="13">
         <f>VD1_/VD3_*k13d_prop*3</f>
         <v>0.45123966942148763</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I65" s="14" t="str">
+      <c r="H65" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="I65" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=VD1_/VD3_*k13d_prop*3</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="19" t="s">
         <v>148</v>
       </c>
     </row>

--- a/data/ModelF_Atezolizumab_Params.xlsx
+++ b/data/ModelF_Atezolizumab_Params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/TumorModeling_IMA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3051FD91-6DA8-EB41-B43D-AFEA0AE729E9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E230CC-4662-C54A-8F0D-2BFDC454D006}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="460" windowWidth="24100" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,12 +639,6 @@
     <t>scale by volume</t>
   </si>
   <si>
-    <t>Could be much faster, or could not occur at all depending on tissue</t>
-  </si>
-  <si>
-    <t>scale by volume such that at equilibrium, the amount flowing back and forth are equal</t>
-  </si>
-  <si>
     <t>Dose</t>
   </si>
   <si>
@@ -691,6 +685,12 @@
   </si>
   <si>
     <t>calc/guess</t>
+  </si>
+  <si>
+    <t>Ayyar18, Table 4 kin https://doi.org/10.1007/s10928-018-9585-x(012 345678,9-().volV)(0123456789().,-volV)</t>
+  </si>
+  <si>
+    <t>Ayyar18, Table 4 kout https://doi.org/10.1007/s10928-018-9585-x(012 345678,9-().volV)(0123456789().,-volV)</t>
   </si>
 </sst>
 </file>
@@ -790,7 +790,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,9 +864,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -893,7 +890,97 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1375,21 +1462,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:J79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ParamType" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Formula" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ParamType" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Formula" dataDxfId="10">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment or Reference" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment or Reference" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1720,7 +1807,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3815,7 +3902,7 @@
         <v>=2*P*Rcap/Rkrogh^2</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3842,7 +3929,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I65" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3970,21 +4057,22 @@
       <c r="E69" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F69" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G69" s="18" t="s">
+      <c r="F69" s="3">
+        <f>0.002*24</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H69" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I69" s="19" t="str">
+      <c r="H69" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I69" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J69" s="25" t="s">
-        <v>182</v>
+        <v>=0.002*24</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -4004,21 +4092,21 @@
         <v>101</v>
       </c>
       <c r="F70" s="3">
-        <f>k13M*VD1_/VD3_</f>
-        <v>6.56</v>
+        <f>0.23*24</f>
+        <v>5.5200000000000005</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I70" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=k13M*VD1_/VD3_</v>
+        <v>=0.23*24</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4039,7 +4127,7 @@
       </c>
       <c r="F71" s="3">
         <f>k13M</f>
-        <v>0.2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>4</v>
@@ -4071,7 +4159,7 @@
       </c>
       <c r="F72" s="3">
         <f>k31M</f>
-        <v>6.56</v>
+        <v>5.5200000000000005</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>4</v>
@@ -4092,23 +4180,23 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F73" s="3">
         <f>1200*6.67</f>
         <v>8004</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>53</v>
@@ -4118,7 +4206,7 @@
         <v>=1200*6.67</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4126,22 +4214,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F74" s="3">
         <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>53</v>
@@ -4163,10 +4251,10 @@
         <v>68</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F75" s="3">
         <f>Dose/(CL*Tau)</f>
@@ -4195,10 +4283,10 @@
         <v>81</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F76" s="3">
         <f>kshedDM3+keDM3</f>
@@ -4227,10 +4315,10 @@
         <v>81</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F77" s="16">
         <f>keDMtot*M30_/(k31D_thurber*Cavg)</f>
@@ -4240,14 +4328,14 @@
         <v>3</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I77" s="21" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=keDMtot*M30_/(k31D_thurber*Cavg)</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4280,83 +4368,118 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F293">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="39" priority="37">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:I58 K55:K58 D58 C55:C58 J25:J28 K24:K28 K31:K34 I24:J24 G35:G36 H24:I38 B53:K53 B47:H52 I37:I66 A1:K3 C37:G38 C24:G30 B24:B46 C59:K66 C54:K54 A80:K1048576 B69:H72 B54:B68 B4:K23 A79:H79 C67:H68 J29:K30 C39:H46 J35:K52 C35:E36 I67:K79 A4:A77">
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="calc">
+  <conditionalFormatting sqref="H55:I58 K55:K58 D58 C55:C58 J25:J28 K24:K28 K31:K34 I24:J24 G35:G36 H24:I38 B53:K53 B47:H52 I37:I66 A1:K3 C37:G38 C24:G30 B24:B46 C54:K54 A80:K1048576 B71:H72 B54:B68 B4:K23 A79:H79 J29:K30 C39:H46 J35:K52 C35:E36 C59:K68 A4:A77 I71:K79 K69:K70 B69:C70">
+    <cfRule type="containsText" dxfId="38" priority="36" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80:I1048576 H79 H67:H72 H1:I66 I67:I79">
-    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="literature">
+  <conditionalFormatting sqref="H80:I1048576 H79 H1:I68 I71:I79 H71:H72">
+    <cfRule type="containsText" dxfId="37" priority="34" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53:I66 H1:I38 I37:I52 H80:I1048576 H79 H67:H72 H39:H52 I67:I79">
-    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="not used">
+  <conditionalFormatting sqref="H1:I38 I37:I52 H80:I1048576 H79 H39:H52 H53:I68 I71:I79 H71:H72">
+    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79:H1048576 H1:H72">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="internal data">
+  <conditionalFormatting sqref="H79:H1048576 H1:H68 H71:H72">
+    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="29" priority="18" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:J70">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",D69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69:I70">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69:I70">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69:H70">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/ModelF_Atezolizumab_Params.xlsx
+++ b/data/ModelF_Atezolizumab_Params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/TumorModeling_IMA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E230CC-4662-C54A-8F0D-2BFDC454D006}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33946ADF-79D2-7540-99FD-119DC8CABCE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="460" windowWidth="24100" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <definedName name="VtumDS">Sheet1!$F$49</definedName>
     <definedName name="VtumS">Sheet1!$F$48</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="206">
   <si>
     <t>Parameter</t>
   </si>
@@ -691,13 +691,31 @@
   </si>
   <si>
     <t>Ayyar18, Table 4 kout https://doi.org/10.1007/s10928-018-9585-x(012 345678,9-().volV)(0123456789().,-volV)</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Tissue Volume</t>
+  </si>
+  <si>
+    <t>used for Vlink model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -733,6 +751,12 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -790,7 +814,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,6 +888,18 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -890,7 +926,187 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="4" tint="-0.499984740745262"/>
@@ -1240,6 +1456,96 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1462,21 +1768,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:J79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J80" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:J80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ParamType" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Formula" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ParamType" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Formula" dataDxfId="28">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment or Reference" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment or Reference" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1804,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4339,147 +4645,326 @@
       </c>
     </row>
     <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="A78" s="8">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F78" s="3">
+        <f>VD1_</f>
+        <v>3.28</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I78" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J78" s="9"/>
+        <v>=VD1_</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F79" s="3">
+        <f>VD2_</f>
+        <v>3.63</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I79" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J79" s="9"/>
+        <v>=VD2_</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="25">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F80" s="27">
+        <f>VD3_</f>
+        <v>0.1</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I80" s="28" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F80),"")</f>
+        <v>=VD3_</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F293">
-    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="39" priority="37">
+    <cfRule type="expression" dxfId="66" priority="64">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:I58 K55:K58 D58 C55:C58 J25:J28 K24:K28 K31:K34 I24:J24 G35:G36 H24:I38 B53:K53 B47:H52 I37:I66 A1:K3 C37:G38 C24:G30 B24:B46 C54:K54 A80:K1048576 B71:H72 B54:B68 B4:K23 A79:H79 J29:K30 C39:H46 J35:K52 C35:E36 C59:K68 A4:A77 I71:K79 K69:K70 B69:C70">
-    <cfRule type="containsText" dxfId="38" priority="36" operator="containsText" text="calc">
+  <conditionalFormatting sqref="H55:I58 K55:K58 D58 C55:C58 J25:J28 K24:K28 K31:K34 I24:J24 G35:G36 H24:I38 B53:K53 B47:H52 I37:I66 A1:K3 C37:G38 C24:G30 B24:B46 C54:K54 A81:K1048576 B71:H72 B54:B68 B4:K23 J29:K30 C39:H46 J35:K52 C35:E36 C59:K68 A4:A77 K69:K70 B69:C70 A79:G80 I71:K80">
+    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80:I1048576 H79 H1:I68 I71:I79 H71:H72">
-    <cfRule type="containsText" dxfId="37" priority="34" operator="containsText" text="literature">
+  <conditionalFormatting sqref="H81:I1048576 H1:I68 H71:H72 I71:I80">
+    <cfRule type="containsText" dxfId="64" priority="61" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I38 I37:I52 H80:I1048576 H79 H39:H52 H53:I68 I71:I79 H71:H72">
-    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="not used">
+  <conditionalFormatting sqref="H1:I38 I37:I52 H81:I1048576 H39:H52 H53:I68 H71:H72 I71:I80">
+    <cfRule type="containsText" dxfId="62" priority="56" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="61" priority="57" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="60" priority="58" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79:H1048576 H1:H68 H71:H72">
-    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="internal data">
+  <conditionalFormatting sqref="H81:H1048576 H1:H68 H71:H72">
+    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="29" priority="18" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="56" priority="45" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="55" priority="43" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="54" priority="44" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="53" priority="38" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="52" priority="39" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="51" priority="40" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="50" priority="41" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="49" priority="42" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:H77">
-    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="48" priority="37" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:J70">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="47" priority="36" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69:I70">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="46" priority="34" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69:I70">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="43" priority="30" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="42" priority="31" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="41" priority="32" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69:H70">
+    <cfRule type="containsText" dxfId="39" priority="28" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="24" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="internal data">
-      <formula>NOT(ISERROR(SEARCH("internal data",H69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("internal data",H80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
